--- a/DATA/IBM.xlsx
+++ b/DATA/IBM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnf\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadum\OneDrive\Scientfic Computing\Stock Price Forecasting\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B831FB-8BF9-4FEF-9C6D-E188D492A3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C9B831FB-8BF9-4FEF-9C6D-E188D492A3BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3BA5019-F056-4DF4-BA5D-BEA31DA0DD3C}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,6 @@
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,7 +397,7 @@
   <dimension ref="A1:B756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A756"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,319 +408,319 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>36889</v>
+        <v>35797</v>
       </c>
       <c r="B1">
-        <v>85</v>
+        <v>105.625</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>36888</v>
+        <v>35800</v>
       </c>
       <c r="B2">
-        <v>85.25</v>
+        <v>106.4375</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>36887</v>
+        <v>35801</v>
       </c>
       <c r="B3">
-        <v>84.6875</v>
+        <v>105.25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>36886</v>
+        <v>35802</v>
       </c>
       <c r="B4">
-        <v>84.8125</v>
+        <v>104.25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>36882</v>
+        <v>35803</v>
       </c>
       <c r="B5">
-        <v>89</v>
+        <v>104.1875</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>36881</v>
+        <v>35804</v>
       </c>
       <c r="B6">
-        <v>81.5625</v>
+        <v>100.0625</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>36880</v>
+        <v>35807</v>
       </c>
       <c r="B7">
-        <v>86</v>
+        <v>100.125</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>36879</v>
+        <v>35808</v>
       </c>
       <c r="B8">
-        <v>90.125</v>
+        <v>102.125</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>36878</v>
+        <v>35809</v>
       </c>
       <c r="B9">
-        <v>90.5</v>
+        <v>102.625</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>36875</v>
+        <v>35810</v>
       </c>
       <c r="B10">
-        <v>87.8125</v>
+        <v>103.4375</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>36874</v>
+        <v>35811</v>
       </c>
       <c r="B11">
-        <v>92.4375</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>36873</v>
+        <v>35815</v>
       </c>
       <c r="B12">
-        <v>91.25</v>
+        <v>108.375</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>36872</v>
+        <v>35816</v>
       </c>
       <c r="B13">
-        <v>93.875</v>
+        <v>100.125</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>36871</v>
+        <v>35817</v>
       </c>
       <c r="B14">
-        <v>95</v>
+        <v>99.375</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>36868</v>
+        <v>35818</v>
       </c>
       <c r="B15">
-        <v>97</v>
+        <v>99.1875</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>36867</v>
+        <v>35821</v>
       </c>
       <c r="B16">
-        <v>95.375</v>
+        <v>98.125</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>36866</v>
+        <v>35822</v>
       </c>
       <c r="B17">
-        <v>96.75</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>36865</v>
+        <v>35823</v>
       </c>
       <c r="B18">
-        <v>103.375</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>36864</v>
+        <v>35824</v>
       </c>
       <c r="B19">
-        <v>98.375</v>
+        <v>98.1875</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>36861</v>
+        <v>35825</v>
       </c>
       <c r="B20">
-        <v>95.625</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>36860</v>
+        <v>35828</v>
       </c>
       <c r="B21">
-        <v>93.5</v>
+        <v>100.5625</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>36859</v>
+        <v>35829</v>
       </c>
       <c r="B22">
-        <v>99.8125</v>
+        <v>99.375</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>36858</v>
+        <v>35830</v>
       </c>
       <c r="B23">
-        <v>97.875</v>
+        <v>98.3125</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>36857</v>
+        <v>35831</v>
       </c>
       <c r="B24">
-        <v>98.4375</v>
+        <v>99.5625</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>36854</v>
+        <v>35832</v>
       </c>
       <c r="B25">
-        <v>99.9375</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>36852</v>
+        <v>35835</v>
       </c>
       <c r="B26">
-        <v>98.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>36851</v>
+        <v>35836</v>
       </c>
       <c r="B27">
-        <v>98.5</v>
+        <v>100.875</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>36850</v>
+        <v>35837</v>
       </c>
       <c r="B28">
-        <v>103.25</v>
+        <v>102.6875</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>36847</v>
+        <v>35838</v>
       </c>
       <c r="B29">
-        <v>101.9375</v>
+        <v>102.875</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>36846</v>
+        <v>35839</v>
       </c>
       <c r="B30">
-        <v>98.25</v>
+        <v>102.375</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>36845</v>
+        <v>35843</v>
       </c>
       <c r="B31">
-        <v>99.375</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>36844</v>
+        <v>35844</v>
       </c>
       <c r="B32">
-        <v>99.5</v>
+        <v>102.75</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>36843</v>
+        <v>35845</v>
       </c>
       <c r="B33">
-        <v>97.4375</v>
+        <v>102.75</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>36840</v>
+        <v>35846</v>
       </c>
       <c r="B34">
-        <v>93</v>
+        <v>102.625</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>36839</v>
+        <v>35849</v>
       </c>
       <c r="B35">
-        <v>99.4375</v>
+        <v>102.875</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>36838</v>
+        <v>35850</v>
       </c>
       <c r="B36">
-        <v>100</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>36837</v>
+        <v>35851</v>
       </c>
       <c r="B37">
-        <v>102.3125</v>
+        <v>105.25</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>36836</v>
+        <v>35852</v>
       </c>
       <c r="B38">
-        <v>100.3125</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>36833</v>
+        <v>35853</v>
       </c>
       <c r="B39">
-        <v>100.125</v>
+        <v>104.4375</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>36832</v>
+        <v>35856</v>
       </c>
       <c r="B40">
         <v>101.9375</v>
@@ -732,5415 +728,5415 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>36831</v>
+        <v>35857</v>
       </c>
       <c r="B41">
-        <v>98.5625</v>
+        <v>102.125</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>36830</v>
+        <v>35858</v>
       </c>
       <c r="B42">
-        <v>98.5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>36829</v>
+        <v>35859</v>
       </c>
       <c r="B43">
-        <v>93.3125</v>
+        <v>98.9375</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>36826</v>
+        <v>35860</v>
       </c>
       <c r="B44">
-        <v>93.6875</v>
+        <v>98.125</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>36825</v>
+        <v>35863</v>
       </c>
       <c r="B45">
-        <v>92.75</v>
+        <v>96.125</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>36824</v>
+        <v>35864</v>
       </c>
       <c r="B46">
-        <v>87.5625</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>36823</v>
+        <v>35865</v>
       </c>
       <c r="B47">
-        <v>91.4375</v>
+        <v>99.125</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>36822</v>
+        <v>35866</v>
       </c>
       <c r="B48">
-        <v>92.875</v>
+        <v>100.25</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>36819</v>
+        <v>35867</v>
       </c>
       <c r="B49">
-        <v>94.75</v>
+        <v>99.625</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>36818</v>
+        <v>35870</v>
       </c>
       <c r="B50">
-        <v>96.4375</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>36817</v>
+        <v>35871</v>
       </c>
       <c r="B51">
-        <v>95.4375</v>
+        <v>100.875</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>36816</v>
+        <v>35872</v>
       </c>
       <c r="B52">
-        <v>113</v>
+        <v>101.5625</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>36815</v>
+        <v>35873</v>
       </c>
       <c r="B53">
-        <v>111.125</v>
+        <v>102.875</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>36812</v>
+        <v>35874</v>
       </c>
       <c r="B54">
-        <v>109.0625</v>
+        <v>102.0625</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>36811</v>
+        <v>35877</v>
       </c>
       <c r="B55">
-        <v>103.125</v>
+        <v>101.375</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>36810</v>
+        <v>35878</v>
       </c>
       <c r="B56">
-        <v>112</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>36809</v>
+        <v>35879</v>
       </c>
       <c r="B57">
-        <v>114.875</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>36808</v>
+        <v>35880</v>
       </c>
       <c r="B58">
-        <v>117.9375</v>
+        <v>105.0625</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>36805</v>
+        <v>35881</v>
       </c>
       <c r="B59">
-        <v>116</v>
+        <v>104.375</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>36804</v>
+        <v>35884</v>
       </c>
       <c r="B60">
-        <v>113.1875</v>
+        <v>103.25</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>36803</v>
+        <v>35885</v>
       </c>
       <c r="B61">
-        <v>114.375</v>
+        <v>103.875</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>36802</v>
+        <v>35886</v>
       </c>
       <c r="B62">
-        <v>110.5625</v>
+        <v>104.4375</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>36801</v>
+        <v>35887</v>
       </c>
       <c r="B63">
-        <v>117.8125</v>
+        <v>105.8125</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>36798</v>
+        <v>35888</v>
       </c>
       <c r="B64">
-        <v>112.5</v>
+        <v>104.6875</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>36797</v>
+        <v>35891</v>
       </c>
       <c r="B65">
-        <v>117.9375</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>36796</v>
+        <v>35892</v>
       </c>
       <c r="B66">
-        <v>118</v>
+        <v>104.6875</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>36795</v>
+        <v>35893</v>
       </c>
       <c r="B67">
-        <v>119.3125</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>36794</v>
+        <v>35894</v>
       </c>
       <c r="B68">
-        <v>121.6875</v>
+        <v>106.375</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>36791</v>
+        <v>35898</v>
       </c>
       <c r="B69">
-        <v>124</v>
+        <v>104.1875</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>36790</v>
+        <v>35899</v>
       </c>
       <c r="B70">
-        <v>126.0625</v>
+        <v>106.25</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>36789</v>
+        <v>35900</v>
       </c>
       <c r="B71">
-        <v>124.375</v>
+        <v>109.75</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>36788</v>
+        <v>35901</v>
       </c>
       <c r="B72">
-        <v>125.125</v>
+        <v>107.8125</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>36787</v>
+        <v>35902</v>
       </c>
       <c r="B73">
-        <v>123.25</v>
+        <v>107.75</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>36784</v>
+        <v>35905</v>
       </c>
       <c r="B74">
-        <v>124.8125</v>
+        <v>111.1875</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>36783</v>
+        <v>35906</v>
       </c>
       <c r="B75">
-        <v>126.875</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>36782</v>
+        <v>35907</v>
       </c>
       <c r="B76">
-        <v>127.3125</v>
+        <v>114.75</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>36781</v>
+        <v>35908</v>
       </c>
       <c r="B77">
-        <v>125</v>
+        <v>117.5</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>36780</v>
+        <v>35909</v>
       </c>
       <c r="B78">
-        <v>124.75</v>
+        <v>117.375</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>36777</v>
+        <v>35912</v>
       </c>
       <c r="B79">
-        <v>129.5</v>
+        <v>115.3125</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>36776</v>
+        <v>35913</v>
       </c>
       <c r="B80">
-        <v>133.375</v>
+        <v>115.6875</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>36775</v>
+        <v>35914</v>
       </c>
       <c r="B81">
-        <v>131.4375</v>
+        <v>115.5625</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>36774</v>
+        <v>35915</v>
       </c>
       <c r="B82">
-        <v>131.5625</v>
+        <v>115.875</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>36770</v>
+        <v>35916</v>
       </c>
       <c r="B83">
-        <v>133.625</v>
+        <v>116.875</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>36769</v>
+        <v>35919</v>
       </c>
       <c r="B84">
-        <v>132</v>
+        <v>116.625</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>36768</v>
+        <v>35920</v>
       </c>
       <c r="B85">
-        <v>130.3125</v>
+        <v>117.8125</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>36767</v>
+        <v>35921</v>
       </c>
       <c r="B86">
-        <v>132.875</v>
+        <v>117.25</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>36766</v>
+        <v>35922</v>
       </c>
       <c r="B87">
-        <v>130.5625</v>
+        <v>117.125</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>36763</v>
+        <v>35923</v>
       </c>
       <c r="B88">
-        <v>129.125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>36762</v>
+        <v>35926</v>
       </c>
       <c r="B89">
-        <v>124.8125</v>
+        <v>119.3125</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>36761</v>
+        <v>35927</v>
       </c>
       <c r="B90">
-        <v>123</v>
+        <v>119.625</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>36760</v>
+        <v>35928</v>
       </c>
       <c r="B91">
-        <v>121.3125</v>
+        <v>121.875</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>36759</v>
+        <v>35929</v>
       </c>
       <c r="B92">
-        <v>121.4375</v>
+        <v>125.8125</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>36756</v>
+        <v>35930</v>
       </c>
       <c r="B93">
-        <v>120.1875</v>
+        <v>124.9375</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>36755</v>
+        <v>35933</v>
       </c>
       <c r="B94">
-        <v>122.375</v>
+        <v>124.625</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>36754</v>
+        <v>35934</v>
       </c>
       <c r="B95">
-        <v>120.0625</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>36753</v>
+        <v>35935</v>
       </c>
       <c r="B96">
-        <v>122</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>36752</v>
+        <v>35936</v>
       </c>
       <c r="B97">
-        <v>123.125</v>
+        <v>123.625</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>36749</v>
+        <v>35937</v>
       </c>
       <c r="B98">
-        <v>120.75</v>
+        <v>121.9375</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>36748</v>
+        <v>35941</v>
       </c>
       <c r="B99">
-        <v>119.75</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>36747</v>
+        <v>35942</v>
       </c>
       <c r="B100">
-        <v>119.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>36746</v>
+        <v>35943</v>
       </c>
       <c r="B101">
-        <v>118.9375</v>
+        <v>120.0625</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>36745</v>
+        <v>35944</v>
       </c>
       <c r="B102">
-        <v>116.3125</v>
+        <v>117.5</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>36742</v>
+        <v>35947</v>
       </c>
       <c r="B103">
-        <v>115.875</v>
+        <v>117.1875</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>36741</v>
+        <v>35948</v>
       </c>
       <c r="B104">
-        <v>116.0625</v>
+        <v>115.5625</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>36740</v>
+        <v>35949</v>
       </c>
       <c r="B105">
-        <v>114.6875</v>
+        <v>113.875</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>36739</v>
+        <v>35950</v>
       </c>
       <c r="B106">
-        <v>110.5625</v>
+        <v>116.0625</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>36738</v>
+        <v>35951</v>
       </c>
       <c r="B107">
-        <v>112.4375</v>
+        <v>118.875</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>36735</v>
+        <v>35954</v>
       </c>
       <c r="B108">
-        <v>111.8125</v>
+        <v>118.8125</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>36734</v>
+        <v>35955</v>
       </c>
       <c r="B109">
-        <v>110.125</v>
+        <v>119.25</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>36733</v>
+        <v>35956</v>
       </c>
       <c r="B110">
-        <v>109.875</v>
+        <v>117.25</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>36732</v>
+        <v>35957</v>
       </c>
       <c r="B111">
-        <v>111.75</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>36731</v>
+        <v>35958</v>
       </c>
       <c r="B112">
-        <v>112.5</v>
+        <v>116.25</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>36728</v>
+        <v>35961</v>
       </c>
       <c r="B113">
-        <v>114.4375</v>
+        <v>112.25</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>36727</v>
+        <v>35962</v>
       </c>
       <c r="B114">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>36726</v>
+        <v>35963</v>
       </c>
       <c r="B115">
-        <v>103.5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>36725</v>
+        <v>35964</v>
       </c>
       <c r="B116">
-        <v>102.9375</v>
+        <v>108.8125</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>36724</v>
+        <v>35965</v>
       </c>
       <c r="B117">
-        <v>105.4375</v>
+        <v>106.125</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>36721</v>
+        <v>35968</v>
       </c>
       <c r="B118">
-        <v>103.9375</v>
+        <v>108.125</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>36720</v>
+        <v>35969</v>
       </c>
       <c r="B119">
-        <v>103.125</v>
+        <v>111.75</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>36719</v>
+        <v>35970</v>
       </c>
       <c r="B120">
-        <v>104.4375</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>36718</v>
+        <v>35971</v>
       </c>
       <c r="B121">
-        <v>102.1875</v>
+        <v>112.4375</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>36717</v>
+        <v>35972</v>
       </c>
       <c r="B122">
-        <v>103.3125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>36714</v>
+        <v>35975</v>
       </c>
       <c r="B123">
-        <v>104.6875</v>
+        <v>114.125</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>36713</v>
+        <v>35976</v>
       </c>
       <c r="B124">
-        <v>101.75</v>
+        <v>114.8125</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>36712</v>
+        <v>35977</v>
       </c>
       <c r="B125">
-        <v>104</v>
+        <v>116.75</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>36710</v>
+        <v>35978</v>
       </c>
       <c r="B126">
-        <v>109.875</v>
+        <v>115.1875</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>36707</v>
+        <v>35982</v>
       </c>
       <c r="B127">
-        <v>109.5625</v>
+        <v>113.6875</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>36706</v>
+        <v>35983</v>
       </c>
       <c r="B128">
-        <v>114</v>
+        <v>113.875</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>36705</v>
+        <v>35984</v>
       </c>
       <c r="B129">
-        <v>113.6875</v>
+        <v>115</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>36704</v>
+        <v>35985</v>
       </c>
       <c r="B130">
-        <v>109.6875</v>
+        <v>117.0625</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>36703</v>
+        <v>35986</v>
       </c>
       <c r="B131">
-        <v>115.125</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>36700</v>
+        <v>35989</v>
       </c>
       <c r="B132">
-        <v>111.75</v>
+        <v>119.375</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>36699</v>
+        <v>35990</v>
       </c>
       <c r="B133">
-        <v>111.4375</v>
+        <v>119.625</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>36698</v>
+        <v>35991</v>
       </c>
       <c r="B134">
-        <v>114.5</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>36697</v>
+        <v>35992</v>
       </c>
       <c r="B135">
-        <v>116.3125</v>
+        <v>118.375</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>36696</v>
+        <v>35993</v>
       </c>
       <c r="B136">
-        <v>120</v>
+        <v>120.1875</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>36693</v>
+        <v>35996</v>
       </c>
       <c r="B137">
-        <v>113.25</v>
+        <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>36692</v>
+        <v>35997</v>
       </c>
       <c r="B138">
-        <v>116.8125</v>
+        <v>128.125</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>36691</v>
+        <v>35998</v>
       </c>
       <c r="B139">
-        <v>116</v>
+        <v>127.4375</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>36690</v>
+        <v>35999</v>
       </c>
       <c r="B140">
-        <v>119.6875</v>
+        <v>123.875</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>36689</v>
+        <v>36000</v>
       </c>
       <c r="B141">
-        <v>118.875</v>
+        <v>124.25</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>36686</v>
+        <v>36003</v>
       </c>
       <c r="B142">
-        <v>119.6875</v>
+        <v>125.5</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>36685</v>
+        <v>36004</v>
       </c>
       <c r="B143">
-        <v>119.75</v>
+        <v>125.4375</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>36684</v>
+        <v>36005</v>
       </c>
       <c r="B144">
-        <v>121</v>
+        <v>127.75</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>36683</v>
+        <v>36006</v>
       </c>
       <c r="B145">
-        <v>112.375</v>
+        <v>133.375</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>36682</v>
+        <v>36007</v>
       </c>
       <c r="B146">
-        <v>112.4375</v>
+        <v>132.5</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>36679</v>
+        <v>36010</v>
       </c>
       <c r="B147">
-        <v>108.4375</v>
+        <v>132.75</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>36678</v>
+        <v>36011</v>
       </c>
       <c r="B148">
-        <v>106</v>
+        <v>126.8125</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>36677</v>
+        <v>36012</v>
       </c>
       <c r="B149">
-        <v>107.375</v>
+        <v>128.75</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>36676</v>
+        <v>36013</v>
       </c>
       <c r="B150">
-        <v>110.9375</v>
+        <v>129.75</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>36672</v>
+        <v>36014</v>
       </c>
       <c r="B151">
-        <v>106.9375</v>
+        <v>129.125</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>36671</v>
+        <v>36017</v>
       </c>
       <c r="B152">
-        <v>106.5</v>
+        <v>129.875</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>36670</v>
+        <v>36018</v>
       </c>
       <c r="B153">
-        <v>109.625</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>36669</v>
+        <v>36019</v>
       </c>
       <c r="B154">
-        <v>107.375</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>36668</v>
+        <v>36020</v>
       </c>
       <c r="B155">
-        <v>109</v>
+        <v>126.1875</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>36665</v>
+        <v>36021</v>
       </c>
       <c r="B156">
-        <v>106.8125</v>
+        <v>125.375</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>36664</v>
+        <v>36024</v>
       </c>
       <c r="B157">
-        <v>106.0625</v>
+        <v>125.125</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>36663</v>
+        <v>36025</v>
       </c>
       <c r="B158">
-        <v>107.875</v>
+        <v>128.875</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>36662</v>
+        <v>36026</v>
       </c>
       <c r="B159">
-        <v>109</v>
+        <v>129.9375</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>36661</v>
+        <v>36027</v>
       </c>
       <c r="B160">
-        <v>104.1875</v>
+        <v>128.0625</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>36658</v>
+        <v>36028</v>
       </c>
       <c r="B161">
-        <v>104.5</v>
+        <v>127.875</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>36657</v>
+        <v>36031</v>
       </c>
       <c r="B162">
-        <v>105</v>
+        <v>128.5625</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>36656</v>
+        <v>36032</v>
       </c>
       <c r="B163">
-        <v>103</v>
+        <v>128.4375</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>36655</v>
+        <v>36033</v>
       </c>
       <c r="B164">
-        <v>109.5</v>
+        <v>130.875</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>36654</v>
+        <v>36034</v>
       </c>
       <c r="B165">
-        <v>109.75</v>
+        <v>125.25</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>36651</v>
+        <v>36035</v>
       </c>
       <c r="B166">
-        <v>107.875</v>
+        <v>122.5625</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>36650</v>
+        <v>36038</v>
       </c>
       <c r="B167">
-        <v>107.625</v>
+        <v>112.625</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>36649</v>
+        <v>36039</v>
       </c>
       <c r="B168">
-        <v>108.125</v>
+        <v>117.9375</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>36648</v>
+        <v>36040</v>
       </c>
       <c r="B169">
-        <v>111.375</v>
+        <v>120.5</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>36647</v>
+        <v>36041</v>
       </c>
       <c r="B170">
-        <v>111.875</v>
+        <v>121.75</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>36644</v>
+        <v>36042</v>
       </c>
       <c r="B171">
-        <v>111.5</v>
+        <v>119.375</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>36643</v>
+        <v>36046</v>
       </c>
       <c r="B172">
-        <v>110.4375</v>
+        <v>125.9375</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>36642</v>
+        <v>36047</v>
       </c>
       <c r="B173">
-        <v>110.5</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>36641</v>
+        <v>36048</v>
       </c>
       <c r="B174">
-        <v>112.75</v>
+        <v>122.5</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>36640</v>
+        <v>36049</v>
       </c>
       <c r="B175">
-        <v>106.5</v>
+        <v>126.5625</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>36636</v>
+        <v>36052</v>
       </c>
       <c r="B176">
-        <v>104</v>
+        <v>129.125</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>36635</v>
+        <v>36053</v>
       </c>
       <c r="B177">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>36634</v>
+        <v>36054</v>
       </c>
       <c r="B178">
-        <v>112</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>36633</v>
+        <v>36055</v>
       </c>
       <c r="B179">
-        <v>111.875</v>
+        <v>126.75</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>36630</v>
+        <v>36056</v>
       </c>
       <c r="B180">
-        <v>105</v>
+        <v>124.6875</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>36629</v>
+        <v>36059</v>
       </c>
       <c r="B181">
-        <v>110.625</v>
+        <v>128.1875</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>36628</v>
+        <v>36060</v>
       </c>
       <c r="B182">
-        <v>113</v>
+        <v>127.75</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>36627</v>
+        <v>36061</v>
       </c>
       <c r="B183">
-        <v>119</v>
+        <v>132.0625</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>36626</v>
+        <v>36062</v>
       </c>
       <c r="B184">
-        <v>122.125</v>
+        <v>130.5625</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>36623</v>
+        <v>36063</v>
       </c>
       <c r="B185">
-        <v>123.125</v>
+        <v>133.5</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>36622</v>
+        <v>36066</v>
       </c>
       <c r="B186">
-        <v>122.75</v>
+        <v>133.625</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>36621</v>
+        <v>36067</v>
       </c>
       <c r="B187">
-        <v>123.625</v>
+        <v>131.4375</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>36620</v>
+        <v>36068</v>
       </c>
       <c r="B188">
-        <v>121.1875</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>36619</v>
+        <v>36069</v>
       </c>
       <c r="B189">
-        <v>121</v>
+        <v>125.375</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>36616</v>
+        <v>36070</v>
       </c>
       <c r="B190">
-        <v>118</v>
+        <v>124.8125</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>36615</v>
+        <v>36073</v>
       </c>
       <c r="B191">
-        <v>122.5</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>36614</v>
+        <v>36074</v>
       </c>
       <c r="B192">
-        <v>119.5</v>
+        <v>119.25</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>36613</v>
+        <v>36075</v>
       </c>
       <c r="B193">
-        <v>122.5</v>
+        <v>120.75</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>36612</v>
+        <v>36076</v>
       </c>
       <c r="B194">
-        <v>126.875</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>36609</v>
+        <v>36077</v>
       </c>
       <c r="B195">
-        <v>121.5</v>
+        <v>127.3125</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>36608</v>
+        <v>36080</v>
       </c>
       <c r="B196">
-        <v>115.25</v>
+        <v>130.875</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>36607</v>
+        <v>36081</v>
       </c>
       <c r="B197">
-        <v>114.25</v>
+        <v>128.1875</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>36606</v>
+        <v>36082</v>
       </c>
       <c r="B198">
-        <v>113.5</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>36605</v>
+        <v>36083</v>
       </c>
       <c r="B199">
-        <v>112.75</v>
+        <v>136.5</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>36602</v>
+        <v>36084</v>
       </c>
       <c r="B200">
-        <v>110</v>
+        <v>135.9375</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>36601</v>
+        <v>36087</v>
       </c>
       <c r="B201">
-        <v>109</v>
+        <v>139.375</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>36600</v>
+        <v>36088</v>
       </c>
       <c r="B202">
-        <v>107</v>
+        <v>137.875</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>36599</v>
+        <v>36089</v>
       </c>
       <c r="B203">
-        <v>108.9375</v>
+        <v>142.6875</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>36598</v>
+        <v>36090</v>
       </c>
       <c r="B204">
-        <v>107.6875</v>
+        <v>141.8125</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>36595</v>
+        <v>36091</v>
       </c>
       <c r="B205">
-        <v>105.25</v>
+        <v>141.5625</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>36594</v>
+        <v>36094</v>
       </c>
       <c r="B206">
-        <v>107.5625</v>
+        <v>143.0625</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>36593</v>
+        <v>36095</v>
       </c>
       <c r="B207">
-        <v>106.125</v>
+        <v>144.375</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>36592</v>
+        <v>36096</v>
       </c>
       <c r="B208">
-        <v>102.75</v>
+        <v>146.1875</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>36591</v>
+        <v>36097</v>
       </c>
       <c r="B209">
-        <v>103.0625</v>
+        <v>148.75</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>36588</v>
+        <v>36098</v>
       </c>
       <c r="B210">
-        <v>109</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>36587</v>
+        <v>36101</v>
       </c>
       <c r="B211">
-        <v>103.25</v>
+        <v>148.375</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>36586</v>
+        <v>36102</v>
       </c>
       <c r="B212">
-        <v>100.5</v>
+        <v>147.375</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>36585</v>
+        <v>36103</v>
       </c>
       <c r="B213">
-        <v>102.75</v>
+        <v>147.875</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>36584</v>
+        <v>36104</v>
       </c>
       <c r="B214">
-        <v>104.5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>36581</v>
+        <v>36105</v>
       </c>
       <c r="B215">
-        <v>105.75</v>
+        <v>149.9375</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>36580</v>
+        <v>36108</v>
       </c>
       <c r="B216">
-        <v>110.8125</v>
+        <v>151.375</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>36579</v>
+        <v>36109</v>
       </c>
       <c r="B217">
-        <v>108.75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>36578</v>
+        <v>36110</v>
       </c>
       <c r="B218">
-        <v>111</v>
+        <v>157.125</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>36574</v>
+        <v>36111</v>
       </c>
       <c r="B219">
-        <v>112.625</v>
+        <v>157.875</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>36573</v>
+        <v>36112</v>
       </c>
       <c r="B220">
-        <v>116.75</v>
+        <v>157.4375</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>36572</v>
+        <v>36115</v>
       </c>
       <c r="B221">
-        <v>115.75</v>
+        <v>159.375</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>36571</v>
+        <v>36116</v>
       </c>
       <c r="B222">
-        <v>117.125</v>
+        <v>158</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>36570</v>
+        <v>36117</v>
       </c>
       <c r="B223">
-        <v>116.0625</v>
+        <v>159</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>36567</v>
+        <v>36118</v>
       </c>
       <c r="B224">
-        <v>115.375</v>
+        <v>158.5625</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>36566</v>
+        <v>36119</v>
       </c>
       <c r="B225">
-        <v>119.125</v>
+        <v>160.125</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>36565</v>
+        <v>36122</v>
       </c>
       <c r="B226">
-        <v>117.375</v>
+        <v>166.5625</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>36564</v>
+        <v>36123</v>
       </c>
       <c r="B227">
-        <v>119</v>
+        <v>165.25</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>36563</v>
+        <v>36124</v>
       </c>
       <c r="B228">
-        <v>114.125</v>
+        <v>166.75</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>36560</v>
+        <v>36126</v>
       </c>
       <c r="B229">
-        <v>115.625</v>
+        <v>170</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>36559</v>
+        <v>36129</v>
       </c>
       <c r="B230">
-        <v>117.125</v>
+        <v>165.125</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>36558</v>
+        <v>36130</v>
       </c>
       <c r="B231">
-        <v>113.5</v>
+        <v>169.875</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>36557</v>
+        <v>36131</v>
       </c>
       <c r="B232">
-        <v>109.9375</v>
+        <v>167.4375</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>36556</v>
+        <v>36132</v>
       </c>
       <c r="B233">
-        <v>112.25</v>
+        <v>163.5</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>36553</v>
+        <v>36133</v>
       </c>
       <c r="B234">
-        <v>111.5625</v>
+        <v>164.25</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>36552</v>
+        <v>36136</v>
       </c>
       <c r="B235">
-        <v>113.5</v>
+        <v>167.1875</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>36551</v>
+        <v>36137</v>
       </c>
       <c r="B236">
-        <v>116.75</v>
+        <v>168.1875</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>36550</v>
+        <v>36138</v>
       </c>
       <c r="B237">
-        <v>119.125</v>
+        <v>169.4375</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>36549</v>
+        <v>36139</v>
       </c>
       <c r="B238">
-        <v>118</v>
+        <v>165</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>36546</v>
+        <v>36140</v>
       </c>
       <c r="B239">
-        <v>121.5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>36545</v>
+        <v>36143</v>
       </c>
       <c r="B240">
-        <v>121.875</v>
+        <v>162.875</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>36544</v>
+        <v>36144</v>
       </c>
       <c r="B241">
-        <v>120.5</v>
+        <v>165</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>36543</v>
+        <v>36145</v>
       </c>
       <c r="B242">
-        <v>116</v>
+        <v>164.375</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>36539</v>
+        <v>36146</v>
       </c>
       <c r="B243">
-        <v>119.625</v>
+        <v>166.0625</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>36538</v>
+        <v>36147</v>
       </c>
       <c r="B244">
-        <v>118.25</v>
+        <v>171.5625</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>36537</v>
+        <v>36150</v>
       </c>
       <c r="B245">
-        <v>119.625</v>
+        <v>176.375</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>36536</v>
+        <v>36151</v>
       </c>
       <c r="B246">
-        <v>118.875</v>
+        <v>182.25</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>36535</v>
+        <v>36152</v>
       </c>
       <c r="B247">
-        <v>118.5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>36532</v>
+        <v>36153</v>
       </c>
       <c r="B248">
-        <v>113.5</v>
+        <v>187.9375</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>36531</v>
+        <v>36157</v>
       </c>
       <c r="B249">
-        <v>115</v>
+        <v>189.25</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>36530</v>
+        <v>36158</v>
       </c>
       <c r="B250">
-        <v>116</v>
+        <v>187.125</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>36529</v>
+        <v>36159</v>
       </c>
       <c r="B251">
-        <v>112.0625</v>
+        <v>186.75</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>36528</v>
+        <v>36160</v>
       </c>
       <c r="B252">
-        <v>115.625</v>
+        <v>184.375</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>36525</v>
+        <v>36164</v>
       </c>
       <c r="B253">
-        <v>107.875</v>
+        <v>183</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>36524</v>
+        <v>36165</v>
       </c>
       <c r="B254">
-        <v>108.75</v>
+        <v>189.625</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>36523</v>
+        <v>36166</v>
       </c>
       <c r="B255">
-        <v>109.0625</v>
+        <v>188.75</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>36522</v>
+        <v>36167</v>
       </c>
       <c r="B256">
-        <v>109.25</v>
+        <v>190.1875</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>36521</v>
+        <v>36168</v>
       </c>
       <c r="B257">
-        <v>109.75</v>
+        <v>187.5625</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>36517</v>
+        <v>36171</v>
       </c>
       <c r="B258">
-        <v>108.625</v>
+        <v>189.25</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>36516</v>
+        <v>36172</v>
       </c>
       <c r="B259">
-        <v>108.375</v>
+        <v>185.0625</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>36515</v>
+        <v>36173</v>
       </c>
       <c r="B260">
-        <v>110.125</v>
+        <v>185.5</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>36514</v>
+        <v>36174</v>
       </c>
       <c r="B261">
-        <v>108.0625</v>
+        <v>180.625</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>36511</v>
+        <v>36175</v>
       </c>
       <c r="B262">
-        <v>109.125</v>
+        <v>184.9375</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>36510</v>
+        <v>36179</v>
       </c>
       <c r="B263">
-        <v>109.1875</v>
+        <v>192.25</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>36509</v>
+        <v>36180</v>
       </c>
       <c r="B264">
-        <v>106.625</v>
+        <v>194.5</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>36508</v>
+        <v>36181</v>
       </c>
       <c r="B265">
-        <v>109</v>
+        <v>197</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>36507</v>
+        <v>36182</v>
       </c>
       <c r="B266">
-        <v>110.0625</v>
+        <v>179.75</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>36504</v>
+        <v>36185</v>
       </c>
       <c r="B267">
-        <v>109</v>
+        <v>182</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>36503</v>
+        <v>36186</v>
       </c>
       <c r="B268">
-        <v>113.875</v>
+        <v>185.625</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>36502</v>
+        <v>36187</v>
       </c>
       <c r="B269">
-        <v>118.59375</v>
+        <v>178.3125</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>36501</v>
+        <v>36188</v>
       </c>
       <c r="B270">
-        <v>116.625</v>
+        <v>178.6875</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>36500</v>
+        <v>36189</v>
       </c>
       <c r="B271">
-        <v>116</v>
+        <v>183.25</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>36497</v>
+        <v>36192</v>
       </c>
       <c r="B272">
-        <v>112</v>
+        <v>179.75</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>36496</v>
+        <v>36193</v>
       </c>
       <c r="B273">
-        <v>105.5625</v>
+        <v>176.75</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>36495</v>
+        <v>36194</v>
       </c>
       <c r="B274">
-        <v>103.75</v>
+        <v>175.25</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>36494</v>
+        <v>36195</v>
       </c>
       <c r="B275">
-        <v>103.0625</v>
+        <v>169.5625</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>36493</v>
+        <v>36196</v>
       </c>
       <c r="B276">
-        <v>104.1875</v>
+        <v>166</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>36490</v>
+        <v>36199</v>
       </c>
       <c r="B277">
-        <v>105</v>
+        <v>167</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>36488</v>
+        <v>36200</v>
       </c>
       <c r="B278">
-        <v>104.0625</v>
+        <v>162.75</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>36487</v>
+        <v>36201</v>
       </c>
       <c r="B279">
-        <v>106.125</v>
+        <v>168.875</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>36486</v>
+        <v>36202</v>
       </c>
       <c r="B280">
-        <v>107.875</v>
+        <v>178.5</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>36483</v>
+        <v>36203</v>
       </c>
       <c r="B281">
-        <v>104.75</v>
+        <v>172.75</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>36482</v>
+        <v>36207</v>
       </c>
       <c r="B282">
-        <v>98</v>
+        <v>172.5</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>36481</v>
+        <v>36208</v>
       </c>
       <c r="B283">
-        <v>93.25</v>
+        <v>170.5</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>36480</v>
+        <v>36209</v>
       </c>
       <c r="B284">
-        <v>94.5</v>
+        <v>174.25</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>36479</v>
+        <v>36210</v>
       </c>
       <c r="B285">
-        <v>94.0625</v>
+        <v>171.625</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>36476</v>
+        <v>36213</v>
       </c>
       <c r="B286">
-        <v>95.75</v>
+        <v>177.9375</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>36475</v>
+        <v>36214</v>
       </c>
       <c r="B287">
-        <v>95</v>
+        <v>176.9375</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>36474</v>
+        <v>36215</v>
       </c>
       <c r="B288">
-        <v>97</v>
+        <v>173.75</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>36473</v>
+        <v>36216</v>
       </c>
       <c r="B289">
-        <v>93.625</v>
+        <v>173.625</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>36472</v>
+        <v>36217</v>
       </c>
       <c r="B290">
-        <v>93.9375</v>
+        <v>169.75</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>36469</v>
+        <v>36220</v>
       </c>
       <c r="B291">
-        <v>90.25</v>
+        <v>168.375</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>36468</v>
+        <v>36221</v>
       </c>
       <c r="B292">
-        <v>91.5625</v>
+        <v>167.75</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>36467</v>
+        <v>36222</v>
       </c>
       <c r="B293">
-        <v>94.4375</v>
+        <v>166.75</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>36466</v>
+        <v>36223</v>
       </c>
       <c r="B294">
-        <v>94.8125</v>
+        <v>171</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>36465</v>
+        <v>36224</v>
       </c>
       <c r="B295">
-        <v>96.75</v>
+        <v>178.375</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>36462</v>
+        <v>36227</v>
       </c>
       <c r="B296">
-        <v>98.25</v>
+        <v>178.875</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>36461</v>
+        <v>36228</v>
       </c>
       <c r="B297">
-        <v>94.9375</v>
+        <v>182.1875</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>36460</v>
+        <v>36229</v>
       </c>
       <c r="B298">
-        <v>93</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>36459</v>
+        <v>36230</v>
       </c>
       <c r="B299">
-        <v>95.5</v>
+        <v>182.875</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>36458</v>
+        <v>36231</v>
       </c>
       <c r="B300">
-        <v>93.875</v>
+        <v>178</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>36455</v>
+        <v>36234</v>
       </c>
       <c r="B301">
-        <v>93.9375</v>
+        <v>182</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>36454</v>
+        <v>36235</v>
       </c>
       <c r="B302">
-        <v>91</v>
+        <v>181</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>36453</v>
+        <v>36236</v>
       </c>
       <c r="B303">
-        <v>107</v>
+        <v>178.0625</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>36452</v>
+        <v>36237</v>
       </c>
       <c r="B304">
-        <v>107.125</v>
+        <v>177.625</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>36451</v>
+        <v>36238</v>
       </c>
       <c r="B305">
-        <v>107</v>
+        <v>168.5625</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>36448</v>
+        <v>36241</v>
       </c>
       <c r="B306">
-        <v>107.875</v>
+        <v>167</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>36447</v>
+        <v>36242</v>
       </c>
       <c r="B307">
-        <v>107</v>
+        <v>165.375</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>36446</v>
+        <v>36243</v>
       </c>
       <c r="B308">
-        <v>105.0625</v>
+        <v>169.5</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>36445</v>
+        <v>36244</v>
       </c>
       <c r="B309">
-        <v>110</v>
+        <v>171.3125</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>36444</v>
+        <v>36245</v>
       </c>
       <c r="B310">
-        <v>114.25</v>
+        <v>172.375</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>36441</v>
+        <v>36248</v>
       </c>
       <c r="B311">
-        <v>113.5</v>
+        <v>177.875</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>36440</v>
+        <v>36249</v>
       </c>
       <c r="B312">
-        <v>116.375</v>
+        <v>178.5625</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>36439</v>
+        <v>36250</v>
       </c>
       <c r="B313">
-        <v>119.1875</v>
+        <v>177.25</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>36438</v>
+        <v>36251</v>
       </c>
       <c r="B314">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>36437</v>
+        <v>36255</v>
       </c>
       <c r="B315">
-        <v>119.875</v>
+        <v>183.9375</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>36434</v>
+        <v>36256</v>
       </c>
       <c r="B316">
-        <v>117.75</v>
+        <v>183</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>36433</v>
+        <v>36257</v>
       </c>
       <c r="B317">
-        <v>121</v>
+        <v>186.5</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>36432</v>
+        <v>36258</v>
       </c>
       <c r="B318">
-        <v>120.0625</v>
+        <v>187</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>36431</v>
+        <v>36259</v>
       </c>
       <c r="B319">
-        <v>123.5</v>
+        <v>186.3125</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>36430</v>
+        <v>36262</v>
       </c>
       <c r="B320">
-        <v>123</v>
+        <v>183.4375</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>36427</v>
+        <v>36263</v>
       </c>
       <c r="B321">
-        <v>125</v>
+        <v>180</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>36426</v>
+        <v>36264</v>
       </c>
       <c r="B322">
-        <v>122</v>
+        <v>179.375</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>36425</v>
+        <v>36265</v>
       </c>
       <c r="B323">
-        <v>125.1875</v>
+        <v>177.75</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>36424</v>
+        <v>36266</v>
       </c>
       <c r="B324">
-        <v>127.125</v>
+        <v>170.375</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>36423</v>
+        <v>36269</v>
       </c>
       <c r="B325">
-        <v>130.125</v>
+        <v>166.75</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>36420</v>
+        <v>36270</v>
       </c>
       <c r="B326">
-        <v>125.375</v>
+        <v>169.75</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>36419</v>
+        <v>36271</v>
       </c>
       <c r="B327">
-        <v>130</v>
+        <v>171.875</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>36418</v>
+        <v>36272</v>
       </c>
       <c r="B328">
-        <v>131.9375</v>
+        <v>194.5</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>36417</v>
+        <v>36273</v>
       </c>
       <c r="B329">
-        <v>133.3125</v>
+        <v>199.75</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>36416</v>
+        <v>36276</v>
       </c>
       <c r="B330">
-        <v>132.375</v>
+        <v>209.875</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>36413</v>
+        <v>36277</v>
       </c>
       <c r="B331">
-        <v>135</v>
+        <v>212</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>36412</v>
+        <v>36278</v>
       </c>
       <c r="B332">
-        <v>134.75</v>
+        <v>205</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>36411</v>
+        <v>36279</v>
       </c>
       <c r="B333">
-        <v>130.75</v>
+        <v>204.8125</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>36410</v>
+        <v>36280</v>
       </c>
       <c r="B334">
-        <v>132</v>
+        <v>209.1875</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>36406</v>
+        <v>36283</v>
       </c>
       <c r="B335">
-        <v>128.85937999999999</v>
+        <v>212.25</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>36405</v>
+        <v>36284</v>
       </c>
       <c r="B336">
-        <v>125.875</v>
+        <v>212</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>36404</v>
+        <v>36285</v>
       </c>
       <c r="B337">
-        <v>127.25</v>
+        <v>212.125</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>36403</v>
+        <v>36286</v>
       </c>
       <c r="B338">
-        <v>124.5625</v>
+        <v>209.25</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>36402</v>
+        <v>36287</v>
       </c>
       <c r="B339">
-        <v>123.1875</v>
+        <v>217.25</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>36399</v>
+        <v>36290</v>
       </c>
       <c r="B340">
-        <v>124</v>
+        <v>218.625</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>36398</v>
+        <v>36291</v>
       </c>
       <c r="B341">
-        <v>122.9375</v>
+        <v>221</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>36397</v>
+        <v>36292</v>
       </c>
       <c r="B342">
-        <v>122.375</v>
+        <v>225.5</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>36396</v>
+        <v>36293</v>
       </c>
       <c r="B343">
-        <v>122</v>
+        <v>246</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>36395</v>
+        <v>36294</v>
       </c>
       <c r="B344">
-        <v>124.4375</v>
+        <v>239.25</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>36392</v>
+        <v>36297</v>
       </c>
       <c r="B345">
-        <v>121.75</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>36391</v>
+        <v>36298</v>
       </c>
       <c r="B346">
-        <v>122.9375</v>
+        <v>238.5</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>36390</v>
+        <v>36299</v>
       </c>
       <c r="B347">
-        <v>123.875</v>
+        <v>235.875</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>36389</v>
+        <v>36300</v>
       </c>
       <c r="B348">
-        <v>128.5</v>
+        <v>232.875</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>36388</v>
+        <v>36301</v>
       </c>
       <c r="B349">
-        <v>127.375</v>
+        <v>230.375</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>36385</v>
+        <v>36304</v>
       </c>
       <c r="B350">
-        <v>123.375</v>
+        <v>223.75</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>36384</v>
+        <v>36305</v>
       </c>
       <c r="B351">
-        <v>121.125</v>
+        <v>221.1875</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>36383</v>
+        <v>36306</v>
       </c>
       <c r="B352">
-        <v>123.3125</v>
+        <v>236.25</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>36382</v>
+        <v>36307</v>
       </c>
       <c r="B353">
-        <v>119.3125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>36381</v>
+        <v>36308</v>
       </c>
       <c r="B354">
-        <v>122.1875</v>
+        <v>116</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>36378</v>
+        <v>36312</v>
       </c>
       <c r="B355">
-        <v>123.5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>36377</v>
+        <v>36313</v>
       </c>
       <c r="B356">
-        <v>123.1875</v>
+        <v>113.75</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>36376</v>
+        <v>36314</v>
       </c>
       <c r="B357">
-        <v>118.5</v>
+        <v>112.9375</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>36375</v>
+        <v>36315</v>
       </c>
       <c r="B358">
-        <v>119.375</v>
+        <v>116</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>36374</v>
+        <v>36318</v>
       </c>
       <c r="B359">
-        <v>122.25</v>
+        <v>120.5</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>36371</v>
+        <v>36319</v>
       </c>
       <c r="B360">
-        <v>125.6875</v>
+        <v>116.625</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>36370</v>
+        <v>36320</v>
       </c>
       <c r="B361">
-        <v>125.375</v>
+        <v>117</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>36369</v>
+        <v>36321</v>
       </c>
       <c r="B362">
-        <v>128.375</v>
+        <v>115.25</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>36368</v>
+        <v>36322</v>
       </c>
       <c r="B363">
-        <v>126.25</v>
+        <v>114.3125</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>36367</v>
+        <v>36325</v>
       </c>
       <c r="B364">
-        <v>123</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>36364</v>
+        <v>36326</v>
       </c>
       <c r="B365">
-        <v>124.8125</v>
+        <v>115.875</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>36363</v>
+        <v>36327</v>
       </c>
       <c r="B366">
-        <v>123.875</v>
+        <v>120.6875</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>36362</v>
+        <v>36328</v>
       </c>
       <c r="B367">
-        <v>129</v>
+        <v>120.1875</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>36361</v>
+        <v>36329</v>
       </c>
       <c r="B368">
-        <v>128.25</v>
+        <v>120.75</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>36360</v>
+        <v>36332</v>
       </c>
       <c r="B369">
-        <v>134.625</v>
+        <v>124.75</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>36357</v>
+        <v>36333</v>
       </c>
       <c r="B370">
-        <v>136.25</v>
+        <v>123.375</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>36356</v>
+        <v>36334</v>
       </c>
       <c r="B371">
-        <v>136.3125</v>
+        <v>122.9375</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>36355</v>
+        <v>36335</v>
       </c>
       <c r="B372">
-        <v>137.25</v>
+        <v>122.5625</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>36354</v>
+        <v>36336</v>
       </c>
       <c r="B373">
-        <v>137.875</v>
+        <v>123.125</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>36353</v>
+        <v>36339</v>
       </c>
       <c r="B374">
-        <v>137.8125</v>
+        <v>122.5625</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>36350</v>
+        <v>36340</v>
       </c>
       <c r="B375">
-        <v>137.375</v>
+        <v>124.625</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>36349</v>
+        <v>36341</v>
       </c>
       <c r="B376">
-        <v>134</v>
+        <v>129.25</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>36348</v>
+        <v>36342</v>
       </c>
       <c r="B377">
-        <v>132.8125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>36347</v>
+        <v>36343</v>
       </c>
       <c r="B378">
-        <v>131</v>
+        <v>132.25</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>36343</v>
+        <v>36347</v>
       </c>
       <c r="B379">
-        <v>132.25</v>
+        <v>131</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>36342</v>
+        <v>36348</v>
       </c>
       <c r="B380">
-        <v>131</v>
+        <v>132.8125</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>36341</v>
+        <v>36349</v>
       </c>
       <c r="B381">
-        <v>129.25</v>
+        <v>134</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>36340</v>
+        <v>36350</v>
       </c>
       <c r="B382">
-        <v>124.625</v>
+        <v>137.375</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>36339</v>
+        <v>36353</v>
       </c>
       <c r="B383">
-        <v>122.5625</v>
+        <v>137.8125</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>36336</v>
+        <v>36354</v>
       </c>
       <c r="B384">
-        <v>123.125</v>
+        <v>137.875</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>36335</v>
+        <v>36355</v>
       </c>
       <c r="B385">
-        <v>122.5625</v>
+        <v>137.25</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>36334</v>
+        <v>36356</v>
       </c>
       <c r="B386">
-        <v>122.9375</v>
+        <v>136.3125</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>36333</v>
+        <v>36357</v>
       </c>
       <c r="B387">
-        <v>123.375</v>
+        <v>136.25</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>36332</v>
+        <v>36360</v>
       </c>
       <c r="B388">
-        <v>124.75</v>
+        <v>134.625</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>36329</v>
+        <v>36361</v>
       </c>
       <c r="B389">
-        <v>120.75</v>
+        <v>128.25</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>36328</v>
+        <v>36362</v>
       </c>
       <c r="B390">
-        <v>120.1875</v>
+        <v>129</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>36327</v>
+        <v>36363</v>
       </c>
       <c r="B391">
-        <v>120.6875</v>
+        <v>123.875</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>36326</v>
+        <v>36364</v>
       </c>
       <c r="B392">
-        <v>115.875</v>
+        <v>124.8125</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>36325</v>
+        <v>36367</v>
       </c>
       <c r="B393">
-        <v>115.5</v>
+        <v>123</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>36322</v>
+        <v>36368</v>
       </c>
       <c r="B394">
-        <v>114.3125</v>
+        <v>126.25</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>36321</v>
+        <v>36369</v>
       </c>
       <c r="B395">
-        <v>115.25</v>
+        <v>128.375</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>36320</v>
+        <v>36370</v>
       </c>
       <c r="B396">
-        <v>117</v>
+        <v>125.375</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>36319</v>
+        <v>36371</v>
       </c>
       <c r="B397">
-        <v>116.625</v>
+        <v>125.6875</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>36318</v>
+        <v>36374</v>
       </c>
       <c r="B398">
-        <v>120.5</v>
+        <v>122.25</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>36315</v>
+        <v>36375</v>
       </c>
       <c r="B399">
-        <v>116</v>
+        <v>119.375</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>36314</v>
+        <v>36376</v>
       </c>
       <c r="B400">
-        <v>112.9375</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>36313</v>
+        <v>36377</v>
       </c>
       <c r="B401">
-        <v>113.75</v>
+        <v>123.1875</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>36312</v>
+        <v>36378</v>
       </c>
       <c r="B402">
-        <v>112</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>36308</v>
+        <v>36381</v>
       </c>
       <c r="B403">
-        <v>116</v>
+        <v>122.1875</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>36307</v>
+        <v>36382</v>
       </c>
       <c r="B404">
-        <v>116</v>
+        <v>119.3125</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>36306</v>
+        <v>36383</v>
       </c>
       <c r="B405">
-        <v>236.25</v>
+        <v>123.3125</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>36305</v>
+        <v>36384</v>
       </c>
       <c r="B406">
-        <v>221.1875</v>
+        <v>121.125</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>36304</v>
+        <v>36385</v>
       </c>
       <c r="B407">
-        <v>223.75</v>
+        <v>123.375</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>36301</v>
+        <v>36388</v>
       </c>
       <c r="B408">
-        <v>230.375</v>
+        <v>127.375</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>36300</v>
+        <v>36389</v>
       </c>
       <c r="B409">
-        <v>232.875</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>36299</v>
+        <v>36390</v>
       </c>
       <c r="B410">
-        <v>235.875</v>
+        <v>123.875</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>36298</v>
+        <v>36391</v>
       </c>
       <c r="B411">
-        <v>238.5</v>
+        <v>122.9375</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>36297</v>
+        <v>36392</v>
       </c>
       <c r="B412">
-        <v>237.5</v>
+        <v>121.75</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>36294</v>
+        <v>36395</v>
       </c>
       <c r="B413">
-        <v>239.25</v>
+        <v>124.4375</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>36293</v>
+        <v>36396</v>
       </c>
       <c r="B414">
-        <v>246</v>
+        <v>122</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>36292</v>
+        <v>36397</v>
       </c>
       <c r="B415">
-        <v>225.5</v>
+        <v>122.375</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>36291</v>
+        <v>36398</v>
       </c>
       <c r="B416">
-        <v>221</v>
+        <v>122.9375</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>36290</v>
+        <v>36399</v>
       </c>
       <c r="B417">
-        <v>218.625</v>
+        <v>124</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>36287</v>
+        <v>36402</v>
       </c>
       <c r="B418">
-        <v>217.25</v>
+        <v>123.1875</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>36286</v>
+        <v>36403</v>
       </c>
       <c r="B419">
-        <v>209.25</v>
+        <v>124.5625</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>36285</v>
+        <v>36404</v>
       </c>
       <c r="B420">
-        <v>212.125</v>
+        <v>127.25</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>36284</v>
+        <v>36405</v>
       </c>
       <c r="B421">
-        <v>212</v>
+        <v>125.875</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>36283</v>
+        <v>36406</v>
       </c>
       <c r="B422">
-        <v>212.25</v>
+        <v>128.85937999999999</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>36280</v>
+        <v>36410</v>
       </c>
       <c r="B423">
-        <v>209.1875</v>
+        <v>132</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>36279</v>
+        <v>36411</v>
       </c>
       <c r="B424">
-        <v>204.8125</v>
+        <v>130.75</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>36278</v>
+        <v>36412</v>
       </c>
       <c r="B425">
-        <v>205</v>
+        <v>134.75</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>36277</v>
+        <v>36413</v>
       </c>
       <c r="B426">
-        <v>212</v>
+        <v>135</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>36276</v>
+        <v>36416</v>
       </c>
       <c r="B427">
-        <v>209.875</v>
+        <v>132.375</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>36273</v>
+        <v>36417</v>
       </c>
       <c r="B428">
-        <v>199.75</v>
+        <v>133.3125</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>36272</v>
+        <v>36418</v>
       </c>
       <c r="B429">
-        <v>194.5</v>
+        <v>131.9375</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>36271</v>
+        <v>36419</v>
       </c>
       <c r="B430">
-        <v>171.875</v>
+        <v>130</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>36270</v>
+        <v>36420</v>
       </c>
       <c r="B431">
-        <v>169.75</v>
+        <v>125.375</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>36269</v>
+        <v>36423</v>
       </c>
       <c r="B432">
-        <v>166.75</v>
+        <v>130.125</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>36266</v>
+        <v>36424</v>
       </c>
       <c r="B433">
-        <v>170.375</v>
+        <v>127.125</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>36265</v>
+        <v>36425</v>
       </c>
       <c r="B434">
-        <v>177.75</v>
+        <v>125.1875</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>36264</v>
+        <v>36426</v>
       </c>
       <c r="B435">
-        <v>179.375</v>
+        <v>122</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>36263</v>
+        <v>36427</v>
       </c>
       <c r="B436">
-        <v>180</v>
+        <v>125</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>36262</v>
+        <v>36430</v>
       </c>
       <c r="B437">
-        <v>183.4375</v>
+        <v>123</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>36259</v>
+        <v>36431</v>
       </c>
       <c r="B438">
-        <v>186.3125</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>36258</v>
+        <v>36432</v>
       </c>
       <c r="B439">
-        <v>187</v>
+        <v>120.0625</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>36257</v>
+        <v>36433</v>
       </c>
       <c r="B440">
-        <v>186.5</v>
+        <v>121</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>36256</v>
+        <v>36434</v>
       </c>
       <c r="B441">
-        <v>183</v>
+        <v>117.75</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>36255</v>
+        <v>36437</v>
       </c>
       <c r="B442">
-        <v>183.9375</v>
+        <v>119.875</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>36251</v>
+        <v>36438</v>
       </c>
       <c r="B443">
-        <v>177</v>
+        <v>122</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>36250</v>
+        <v>36439</v>
       </c>
       <c r="B444">
-        <v>177.25</v>
+        <v>119.1875</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>36249</v>
+        <v>36440</v>
       </c>
       <c r="B445">
-        <v>178.5625</v>
+        <v>116.375</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>36248</v>
+        <v>36441</v>
       </c>
       <c r="B446">
-        <v>177.875</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>36245</v>
+        <v>36444</v>
       </c>
       <c r="B447">
-        <v>172.375</v>
+        <v>114.25</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>36244</v>
+        <v>36445</v>
       </c>
       <c r="B448">
-        <v>171.3125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>36243</v>
+        <v>36446</v>
       </c>
       <c r="B449">
-        <v>169.5</v>
+        <v>105.0625</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>36242</v>
+        <v>36447</v>
       </c>
       <c r="B450">
-        <v>165.375</v>
+        <v>107</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>36241</v>
+        <v>36448</v>
       </c>
       <c r="B451">
-        <v>167</v>
+        <v>107.875</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>36238</v>
+        <v>36451</v>
       </c>
       <c r="B452">
-        <v>168.5625</v>
+        <v>107</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>36237</v>
+        <v>36452</v>
       </c>
       <c r="B453">
-        <v>177.625</v>
+        <v>107.125</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>36236</v>
+        <v>36453</v>
       </c>
       <c r="B454">
-        <v>178.0625</v>
+        <v>107</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>36235</v>
+        <v>36454</v>
       </c>
       <c r="B455">
-        <v>181</v>
+        <v>91</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>36234</v>
+        <v>36455</v>
       </c>
       <c r="B456">
-        <v>182</v>
+        <v>93.9375</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>36231</v>
+        <v>36458</v>
       </c>
       <c r="B457">
-        <v>178</v>
+        <v>93.875</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>36230</v>
+        <v>36459</v>
       </c>
       <c r="B458">
-        <v>182.875</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>36229</v>
+        <v>36460</v>
       </c>
       <c r="B459">
-        <v>181.5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>36228</v>
+        <v>36461</v>
       </c>
       <c r="B460">
-        <v>182.1875</v>
+        <v>94.9375</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>36227</v>
+        <v>36462</v>
       </c>
       <c r="B461">
-        <v>178.875</v>
+        <v>98.25</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>36224</v>
+        <v>36465</v>
       </c>
       <c r="B462">
-        <v>178.375</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>36223</v>
+        <v>36466</v>
       </c>
       <c r="B463">
-        <v>171</v>
+        <v>94.8125</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>36222</v>
+        <v>36467</v>
       </c>
       <c r="B464">
-        <v>166.75</v>
+        <v>94.4375</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>36221</v>
+        <v>36468</v>
       </c>
       <c r="B465">
-        <v>167.75</v>
+        <v>91.5625</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>36220</v>
+        <v>36469</v>
       </c>
       <c r="B466">
-        <v>168.375</v>
+        <v>90.25</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>36217</v>
+        <v>36472</v>
       </c>
       <c r="B467">
-        <v>169.75</v>
+        <v>93.9375</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>36216</v>
+        <v>36473</v>
       </c>
       <c r="B468">
-        <v>173.625</v>
+        <v>93.625</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>36215</v>
+        <v>36474</v>
       </c>
       <c r="B469">
-        <v>173.75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>36214</v>
+        <v>36475</v>
       </c>
       <c r="B470">
-        <v>176.9375</v>
+        <v>95</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
-        <v>36213</v>
+        <v>36476</v>
       </c>
       <c r="B471">
-        <v>177.9375</v>
+        <v>95.75</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>36210</v>
+        <v>36479</v>
       </c>
       <c r="B472">
-        <v>171.625</v>
+        <v>94.0625</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>36209</v>
+        <v>36480</v>
       </c>
       <c r="B473">
-        <v>174.25</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>36208</v>
+        <v>36481</v>
       </c>
       <c r="B474">
-        <v>170.5</v>
+        <v>93.25</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>36207</v>
+        <v>36482</v>
       </c>
       <c r="B475">
-        <v>172.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>36203</v>
+        <v>36483</v>
       </c>
       <c r="B476">
-        <v>172.75</v>
+        <v>104.75</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>36202</v>
+        <v>36486</v>
       </c>
       <c r="B477">
-        <v>178.5</v>
+        <v>107.875</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
-        <v>36201</v>
+        <v>36487</v>
       </c>
       <c r="B478">
-        <v>168.875</v>
+        <v>106.125</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>36200</v>
+        <v>36488</v>
       </c>
       <c r="B479">
-        <v>162.75</v>
+        <v>104.0625</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>36199</v>
+        <v>36490</v>
       </c>
       <c r="B480">
-        <v>167</v>
+        <v>105</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>36196</v>
+        <v>36493</v>
       </c>
       <c r="B481">
-        <v>166</v>
+        <v>104.1875</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>36195</v>
+        <v>36494</v>
       </c>
       <c r="B482">
-        <v>169.5625</v>
+        <v>103.0625</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>36194</v>
+        <v>36495</v>
       </c>
       <c r="B483">
-        <v>175.25</v>
+        <v>103.75</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>36193</v>
+        <v>36496</v>
       </c>
       <c r="B484">
-        <v>176.75</v>
+        <v>105.5625</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>36192</v>
+        <v>36497</v>
       </c>
       <c r="B485">
-        <v>179.75</v>
+        <v>112</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>36189</v>
+        <v>36500</v>
       </c>
       <c r="B486">
-        <v>183.25</v>
+        <v>116</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>36188</v>
+        <v>36501</v>
       </c>
       <c r="B487">
-        <v>178.6875</v>
+        <v>116.625</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>36187</v>
+        <v>36502</v>
       </c>
       <c r="B488">
-        <v>178.3125</v>
+        <v>118.59375</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>36186</v>
+        <v>36503</v>
       </c>
       <c r="B489">
-        <v>185.625</v>
+        <v>113.875</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>36185</v>
+        <v>36504</v>
       </c>
       <c r="B490">
-        <v>182</v>
+        <v>109</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>36182</v>
+        <v>36507</v>
       </c>
       <c r="B491">
-        <v>179.75</v>
+        <v>110.0625</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
-        <v>36181</v>
+        <v>36508</v>
       </c>
       <c r="B492">
-        <v>197</v>
+        <v>109</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
-        <v>36180</v>
+        <v>36509</v>
       </c>
       <c r="B493">
-        <v>194.5</v>
+        <v>106.625</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
-        <v>36179</v>
+        <v>36510</v>
       </c>
       <c r="B494">
-        <v>192.25</v>
+        <v>109.1875</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>36175</v>
+        <v>36511</v>
       </c>
       <c r="B495">
-        <v>184.9375</v>
+        <v>109.125</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>36174</v>
+        <v>36514</v>
       </c>
       <c r="B496">
-        <v>180.625</v>
+        <v>108.0625</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>36173</v>
+        <v>36515</v>
       </c>
       <c r="B497">
-        <v>185.5</v>
+        <v>110.125</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
-        <v>36172</v>
+        <v>36516</v>
       </c>
       <c r="B498">
-        <v>185.0625</v>
+        <v>108.375</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
-        <v>36171</v>
+        <v>36517</v>
       </c>
       <c r="B499">
-        <v>189.25</v>
+        <v>108.625</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
-        <v>36168</v>
+        <v>36521</v>
       </c>
       <c r="B500">
-        <v>187.5625</v>
+        <v>109.75</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
-        <v>36167</v>
+        <v>36522</v>
       </c>
       <c r="B501">
-        <v>190.1875</v>
+        <v>109.25</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
-        <v>36166</v>
+        <v>36523</v>
       </c>
       <c r="B502">
-        <v>188.75</v>
+        <v>109.0625</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
-        <v>36165</v>
+        <v>36524</v>
       </c>
       <c r="B503">
-        <v>189.625</v>
+        <v>108.75</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
-        <v>36164</v>
+        <v>36525</v>
       </c>
       <c r="B504">
-        <v>183</v>
+        <v>107.875</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
-        <v>36160</v>
+        <v>36528</v>
       </c>
       <c r="B505">
-        <v>184.375</v>
+        <v>115.625</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
-        <v>36159</v>
+        <v>36529</v>
       </c>
       <c r="B506">
-        <v>186.75</v>
+        <v>112.0625</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
-        <v>36158</v>
+        <v>36530</v>
       </c>
       <c r="B507">
-        <v>187.125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
-        <v>36157</v>
+        <v>36531</v>
       </c>
       <c r="B508">
-        <v>189.25</v>
+        <v>115</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>36153</v>
+        <v>36532</v>
       </c>
       <c r="B509">
-        <v>187.9375</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>36152</v>
+        <v>36535</v>
       </c>
       <c r="B510">
-        <v>185</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>36151</v>
+        <v>36536</v>
       </c>
       <c r="B511">
-        <v>182.25</v>
+        <v>118.875</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>36150</v>
+        <v>36537</v>
       </c>
       <c r="B512">
-        <v>176.375</v>
+        <v>119.625</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
-        <v>36147</v>
+        <v>36538</v>
       </c>
       <c r="B513">
-        <v>171.5625</v>
+        <v>118.25</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
-        <v>36146</v>
+        <v>36539</v>
       </c>
       <c r="B514">
-        <v>166.0625</v>
+        <v>119.625</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
-        <v>36145</v>
+        <v>36543</v>
       </c>
       <c r="B515">
-        <v>164.375</v>
+        <v>116</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
-        <v>36144</v>
+        <v>36544</v>
       </c>
       <c r="B516">
-        <v>165</v>
+        <v>120.5</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
-        <v>36143</v>
+        <v>36545</v>
       </c>
       <c r="B517">
-        <v>162.875</v>
+        <v>121.875</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>36140</v>
+        <v>36546</v>
       </c>
       <c r="B518">
-        <v>168</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>36139</v>
+        <v>36549</v>
       </c>
       <c r="B519">
-        <v>165</v>
+        <v>118</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
-        <v>36138</v>
+        <v>36550</v>
       </c>
       <c r="B520">
-        <v>169.4375</v>
+        <v>119.125</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>36137</v>
+        <v>36551</v>
       </c>
       <c r="B521">
-        <v>168.1875</v>
+        <v>116.75</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>36136</v>
+        <v>36552</v>
       </c>
       <c r="B522">
-        <v>167.1875</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>36133</v>
+        <v>36553</v>
       </c>
       <c r="B523">
-        <v>164.25</v>
+        <v>111.5625</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>36132</v>
+        <v>36556</v>
       </c>
       <c r="B524">
-        <v>163.5</v>
+        <v>112.25</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>36131</v>
+        <v>36557</v>
       </c>
       <c r="B525">
-        <v>167.4375</v>
+        <v>109.9375</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>36130</v>
+        <v>36558</v>
       </c>
       <c r="B526">
-        <v>169.875</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>36129</v>
+        <v>36559</v>
       </c>
       <c r="B527">
-        <v>165.125</v>
+        <v>117.125</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>36126</v>
+        <v>36560</v>
       </c>
       <c r="B528">
-        <v>170</v>
+        <v>115.625</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>36124</v>
+        <v>36563</v>
       </c>
       <c r="B529">
-        <v>166.75</v>
+        <v>114.125</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>36123</v>
+        <v>36564</v>
       </c>
       <c r="B530">
-        <v>165.25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>36122</v>
+        <v>36565</v>
       </c>
       <c r="B531">
-        <v>166.5625</v>
+        <v>117.375</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>36119</v>
+        <v>36566</v>
       </c>
       <c r="B532">
-        <v>160.125</v>
+        <v>119.125</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
-        <v>36118</v>
+        <v>36567</v>
       </c>
       <c r="B533">
-        <v>158.5625</v>
+        <v>115.375</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
-        <v>36117</v>
+        <v>36570</v>
       </c>
       <c r="B534">
-        <v>159</v>
+        <v>116.0625</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>36116</v>
+        <v>36571</v>
       </c>
       <c r="B535">
-        <v>158</v>
+        <v>117.125</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>36115</v>
+        <v>36572</v>
       </c>
       <c r="B536">
-        <v>159.375</v>
+        <v>115.75</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
-        <v>36112</v>
+        <v>36573</v>
       </c>
       <c r="B537">
-        <v>157.4375</v>
+        <v>116.75</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
-        <v>36111</v>
+        <v>36574</v>
       </c>
       <c r="B538">
-        <v>157.875</v>
+        <v>112.625</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
-        <v>36110</v>
+        <v>36578</v>
       </c>
       <c r="B539">
-        <v>157.125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
-        <v>36109</v>
+        <v>36579</v>
       </c>
       <c r="B540">
-        <v>156</v>
+        <v>108.75</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>36108</v>
+        <v>36580</v>
       </c>
       <c r="B541">
-        <v>151.375</v>
+        <v>110.8125</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
-        <v>36105</v>
+        <v>36581</v>
       </c>
       <c r="B542">
-        <v>149.9375</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
-        <v>36104</v>
+        <v>36584</v>
       </c>
       <c r="B543">
-        <v>149</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
-        <v>36103</v>
+        <v>36585</v>
       </c>
       <c r="B544">
-        <v>147.875</v>
+        <v>102.75</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>36102</v>
+        <v>36586</v>
       </c>
       <c r="B545">
-        <v>147.375</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
-        <v>36101</v>
+        <v>36587</v>
       </c>
       <c r="B546">
-        <v>148.375</v>
+        <v>103.25</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
-        <v>36098</v>
+        <v>36588</v>
       </c>
       <c r="B547">
-        <v>148.5</v>
+        <v>109</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
-        <v>36097</v>
+        <v>36591</v>
       </c>
       <c r="B548">
-        <v>148.75</v>
+        <v>103.0625</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>36096</v>
+        <v>36592</v>
       </c>
       <c r="B549">
-        <v>146.1875</v>
+        <v>102.75</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
-        <v>36095</v>
+        <v>36593</v>
       </c>
       <c r="B550">
-        <v>144.375</v>
+        <v>106.125</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>36094</v>
+        <v>36594</v>
       </c>
       <c r="B551">
-        <v>143.0625</v>
+        <v>107.5625</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>36091</v>
+        <v>36595</v>
       </c>
       <c r="B552">
-        <v>141.5625</v>
+        <v>105.25</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>36090</v>
+        <v>36598</v>
       </c>
       <c r="B553">
-        <v>141.8125</v>
+        <v>107.6875</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
-        <v>36089</v>
+        <v>36599</v>
       </c>
       <c r="B554">
-        <v>142.6875</v>
+        <v>108.9375</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>36088</v>
+        <v>36600</v>
       </c>
       <c r="B555">
-        <v>137.875</v>
+        <v>107</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>36087</v>
+        <v>36601</v>
       </c>
       <c r="B556">
-        <v>139.375</v>
+        <v>109</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>36084</v>
+        <v>36602</v>
       </c>
       <c r="B557">
-        <v>135.9375</v>
+        <v>110</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>36083</v>
+        <v>36605</v>
       </c>
       <c r="B558">
-        <v>136.5</v>
+        <v>112.75</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>36082</v>
+        <v>36606</v>
       </c>
       <c r="B559">
-        <v>130.5</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
-        <v>36081</v>
+        <v>36607</v>
       </c>
       <c r="B560">
-        <v>128.1875</v>
+        <v>114.25</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
-        <v>36080</v>
+        <v>36608</v>
       </c>
       <c r="B561">
-        <v>130.875</v>
+        <v>115.25</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
-        <v>36077</v>
+        <v>36609</v>
       </c>
       <c r="B562">
-        <v>127.3125</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
-        <v>36076</v>
+        <v>36612</v>
       </c>
       <c r="B563">
-        <v>123.5</v>
+        <v>126.875</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
-        <v>36075</v>
+        <v>36613</v>
       </c>
       <c r="B564">
-        <v>120.75</v>
+        <v>122.5</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>36074</v>
+        <v>36614</v>
       </c>
       <c r="B565">
-        <v>119.25</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
-        <v>36073</v>
+        <v>36615</v>
       </c>
       <c r="B566">
-        <v>120.25</v>
+        <v>122.5</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
-        <v>36070</v>
+        <v>36616</v>
       </c>
       <c r="B567">
-        <v>124.8125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
-        <v>36069</v>
+        <v>36619</v>
       </c>
       <c r="B568">
-        <v>125.375</v>
+        <v>121</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>36068</v>
+        <v>36620</v>
       </c>
       <c r="B569">
-        <v>128.5</v>
+        <v>121.1875</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>36067</v>
+        <v>36621</v>
       </c>
       <c r="B570">
-        <v>131.4375</v>
+        <v>123.625</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>36066</v>
+        <v>36622</v>
       </c>
       <c r="B571">
-        <v>133.625</v>
+        <v>122.75</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>36063</v>
+        <v>36623</v>
       </c>
       <c r="B572">
-        <v>133.5</v>
+        <v>123.125</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
-        <v>36062</v>
+        <v>36626</v>
       </c>
       <c r="B573">
-        <v>130.5625</v>
+        <v>122.125</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
-        <v>36061</v>
+        <v>36627</v>
       </c>
       <c r="B574">
-        <v>132.0625</v>
+        <v>119</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
-        <v>36060</v>
+        <v>36628</v>
       </c>
       <c r="B575">
-        <v>127.75</v>
+        <v>113</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>36059</v>
+        <v>36629</v>
       </c>
       <c r="B576">
-        <v>128.1875</v>
+        <v>110.625</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
-        <v>36056</v>
+        <v>36630</v>
       </c>
       <c r="B577">
-        <v>124.6875</v>
+        <v>105</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
-        <v>36055</v>
+        <v>36633</v>
       </c>
       <c r="B578">
-        <v>126.75</v>
+        <v>111.875</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>36054</v>
+        <v>36634</v>
       </c>
       <c r="B579">
-        <v>130.5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
-        <v>36053</v>
+        <v>36635</v>
       </c>
       <c r="B580">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>36052</v>
+        <v>36636</v>
       </c>
       <c r="B581">
-        <v>129.125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>36049</v>
+        <v>36640</v>
       </c>
       <c r="B582">
-        <v>126.5625</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>36048</v>
+        <v>36641</v>
       </c>
       <c r="B583">
-        <v>122.5</v>
+        <v>112.75</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>36047</v>
+        <v>36642</v>
       </c>
       <c r="B584">
-        <v>123.5</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>36046</v>
+        <v>36643</v>
       </c>
       <c r="B585">
-        <v>125.9375</v>
+        <v>110.4375</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>36042</v>
+        <v>36644</v>
       </c>
       <c r="B586">
-        <v>119.375</v>
+        <v>111.5</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
-        <v>36041</v>
+        <v>36647</v>
       </c>
       <c r="B587">
-        <v>121.75</v>
+        <v>111.875</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
-        <v>36040</v>
+        <v>36648</v>
       </c>
       <c r="B588">
-        <v>120.5</v>
+        <v>111.375</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>36039</v>
+        <v>36649</v>
       </c>
       <c r="B589">
-        <v>117.9375</v>
+        <v>108.125</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>36038</v>
+        <v>36650</v>
       </c>
       <c r="B590">
-        <v>112.625</v>
+        <v>107.625</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
-        <v>36035</v>
+        <v>36651</v>
       </c>
       <c r="B591">
-        <v>122.5625</v>
+        <v>107.875</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
-        <v>36034</v>
+        <v>36654</v>
       </c>
       <c r="B592">
-        <v>125.25</v>
+        <v>109.75</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>36033</v>
+        <v>36655</v>
       </c>
       <c r="B593">
-        <v>130.875</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>36032</v>
+        <v>36656</v>
       </c>
       <c r="B594">
-        <v>128.4375</v>
+        <v>103</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>36031</v>
+        <v>36657</v>
       </c>
       <c r="B595">
-        <v>128.5625</v>
+        <v>105</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
-        <v>36028</v>
+        <v>36658</v>
       </c>
       <c r="B596">
-        <v>127.875</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>36027</v>
+        <v>36661</v>
       </c>
       <c r="B597">
-        <v>128.0625</v>
+        <v>104.1875</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
-        <v>36026</v>
+        <v>36662</v>
       </c>
       <c r="B598">
-        <v>129.9375</v>
+        <v>109</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
-        <v>36025</v>
+        <v>36663</v>
       </c>
       <c r="B599">
-        <v>128.875</v>
+        <v>107.875</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
-        <v>36024</v>
+        <v>36664</v>
       </c>
       <c r="B600">
-        <v>125.125</v>
+        <v>106.0625</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
-        <v>36021</v>
+        <v>36665</v>
       </c>
       <c r="B601">
-        <v>125.375</v>
+        <v>106.8125</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
-        <v>36020</v>
+        <v>36668</v>
       </c>
       <c r="B602">
-        <v>126.1875</v>
+        <v>109</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
-        <v>36019</v>
+        <v>36669</v>
       </c>
       <c r="B603">
-        <v>128</v>
+        <v>107.375</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
-        <v>36018</v>
+        <v>36670</v>
       </c>
       <c r="B604">
-        <v>128.5</v>
+        <v>109.625</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>36017</v>
+        <v>36671</v>
       </c>
       <c r="B605">
-        <v>129.875</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
-        <v>36014</v>
+        <v>36672</v>
       </c>
       <c r="B606">
-        <v>129.125</v>
+        <v>106.9375</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
-        <v>36013</v>
+        <v>36676</v>
       </c>
       <c r="B607">
-        <v>129.75</v>
+        <v>110.9375</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
-        <v>36012</v>
+        <v>36677</v>
       </c>
       <c r="B608">
-        <v>128.75</v>
+        <v>107.375</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>36011</v>
+        <v>36678</v>
       </c>
       <c r="B609">
-        <v>126.8125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
-        <v>36010</v>
+        <v>36679</v>
       </c>
       <c r="B610">
-        <v>132.75</v>
+        <v>108.4375</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
-        <v>36007</v>
+        <v>36682</v>
       </c>
       <c r="B611">
-        <v>132.5</v>
+        <v>112.4375</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
-        <v>36006</v>
+        <v>36683</v>
       </c>
       <c r="B612">
-        <v>133.375</v>
+        <v>112.375</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
-        <v>36005</v>
+        <v>36684</v>
       </c>
       <c r="B613">
-        <v>127.75</v>
+        <v>121</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
-        <v>36004</v>
+        <v>36685</v>
       </c>
       <c r="B614">
-        <v>125.4375</v>
+        <v>119.75</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
-        <v>36003</v>
+        <v>36686</v>
       </c>
       <c r="B615">
-        <v>125.5</v>
+        <v>119.6875</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
-        <v>36000</v>
+        <v>36689</v>
       </c>
       <c r="B616">
-        <v>124.25</v>
+        <v>118.875</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
-        <v>35999</v>
+        <v>36690</v>
       </c>
       <c r="B617">
-        <v>123.875</v>
+        <v>119.6875</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
-        <v>35998</v>
+        <v>36691</v>
       </c>
       <c r="B618">
-        <v>127.4375</v>
+        <v>116</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>35997</v>
+        <v>36692</v>
       </c>
       <c r="B619">
-        <v>128.125</v>
+        <v>116.8125</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
-        <v>35996</v>
+        <v>36693</v>
       </c>
       <c r="B620">
-        <v>122</v>
+        <v>113.25</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
-        <v>35993</v>
+        <v>36696</v>
       </c>
       <c r="B621">
-        <v>120.1875</v>
+        <v>120</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>35992</v>
+        <v>36697</v>
       </c>
       <c r="B622">
-        <v>118.375</v>
+        <v>116.3125</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
-        <v>35991</v>
+        <v>36698</v>
       </c>
       <c r="B623">
-        <v>117</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>35990</v>
+        <v>36699</v>
       </c>
       <c r="B624">
-        <v>119.625</v>
+        <v>111.4375</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
-        <v>35989</v>
+        <v>36700</v>
       </c>
       <c r="B625">
-        <v>119.375</v>
+        <v>111.75</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>35986</v>
+        <v>36703</v>
       </c>
       <c r="B626">
-        <v>118.5</v>
+        <v>115.125</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
-        <v>35985</v>
+        <v>36704</v>
       </c>
       <c r="B627">
-        <v>117.0625</v>
+        <v>109.6875</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
-        <v>35984</v>
+        <v>36705</v>
       </c>
       <c r="B628">
-        <v>115</v>
+        <v>113.6875</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>35983</v>
+        <v>36706</v>
       </c>
       <c r="B629">
-        <v>113.875</v>
+        <v>114</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>35982</v>
+        <v>36707</v>
       </c>
       <c r="B630">
-        <v>113.6875</v>
+        <v>109.5625</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
-        <v>35978</v>
+        <v>36710</v>
       </c>
       <c r="B631">
-        <v>115.1875</v>
+        <v>109.875</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
-        <v>35977</v>
+        <v>36712</v>
       </c>
       <c r="B632">
-        <v>116.75</v>
+        <v>104</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
-        <v>35976</v>
+        <v>36713</v>
       </c>
       <c r="B633">
-        <v>114.8125</v>
+        <v>101.75</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
-        <v>35975</v>
+        <v>36714</v>
       </c>
       <c r="B634">
-        <v>114.125</v>
+        <v>104.6875</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>35972</v>
+        <v>36717</v>
       </c>
       <c r="B635">
-        <v>113</v>
+        <v>103.3125</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
-        <v>35971</v>
+        <v>36718</v>
       </c>
       <c r="B636">
-        <v>112.4375</v>
+        <v>102.1875</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>35970</v>
+        <v>36719</v>
       </c>
       <c r="B637">
-        <v>112</v>
+        <v>104.4375</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>35969</v>
+        <v>36720</v>
       </c>
       <c r="B638">
-        <v>111.75</v>
+        <v>103.125</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>35968</v>
+        <v>36721</v>
       </c>
       <c r="B639">
-        <v>108.125</v>
+        <v>103.9375</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>35965</v>
+        <v>36724</v>
       </c>
       <c r="B640">
-        <v>106.125</v>
+        <v>105.4375</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>35964</v>
+        <v>36725</v>
       </c>
       <c r="B641">
-        <v>108.8125</v>
+        <v>102.9375</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>35963</v>
+        <v>36726</v>
       </c>
       <c r="B642">
-        <v>111</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>35962</v>
+        <v>36727</v>
       </c>
       <c r="B643">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>35961</v>
+        <v>36728</v>
       </c>
       <c r="B644">
-        <v>112.25</v>
+        <v>114.4375</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>35958</v>
+        <v>36731</v>
       </c>
       <c r="B645">
-        <v>116.25</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
-        <v>35957</v>
+        <v>36732</v>
       </c>
       <c r="B646">
-        <v>116</v>
+        <v>111.75</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
-        <v>35956</v>
+        <v>36733</v>
       </c>
       <c r="B647">
-        <v>117.25</v>
+        <v>109.875</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
-        <v>35955</v>
+        <v>36734</v>
       </c>
       <c r="B648">
-        <v>119.25</v>
+        <v>110.125</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
-        <v>35954</v>
+        <v>36735</v>
       </c>
       <c r="B649">
-        <v>118.8125</v>
+        <v>111.8125</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
-        <v>35951</v>
+        <v>36738</v>
       </c>
       <c r="B650">
-        <v>118.875</v>
+        <v>112.4375</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
-        <v>35950</v>
+        <v>36739</v>
       </c>
       <c r="B651">
-        <v>116.0625</v>
+        <v>110.5625</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
-        <v>35949</v>
+        <v>36740</v>
       </c>
       <c r="B652">
-        <v>113.875</v>
+        <v>114.6875</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
-        <v>35948</v>
+        <v>36741</v>
       </c>
       <c r="B653">
-        <v>115.5625</v>
+        <v>116.0625</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
-        <v>35947</v>
+        <v>36742</v>
       </c>
       <c r="B654">
-        <v>117.1875</v>
+        <v>115.875</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
-        <v>35944</v>
+        <v>36745</v>
       </c>
       <c r="B655">
-        <v>117.5</v>
+        <v>116.3125</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
-        <v>35943</v>
+        <v>36746</v>
       </c>
       <c r="B656">
-        <v>120.0625</v>
+        <v>118.9375</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
-        <v>35942</v>
+        <v>36747</v>
       </c>
       <c r="B657">
-        <v>120.25</v>
+        <v>119.125</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
-        <v>35941</v>
+        <v>36748</v>
       </c>
       <c r="B658">
-        <v>121</v>
+        <v>119.75</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
-        <v>35937</v>
+        <v>36749</v>
       </c>
       <c r="B659">
-        <v>121.9375</v>
+        <v>120.75</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
-        <v>35936</v>
+        <v>36752</v>
       </c>
       <c r="B660">
-        <v>123.625</v>
+        <v>123.125</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
-        <v>35935</v>
+        <v>36753</v>
       </c>
       <c r="B661">
-        <v>123.5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
-        <v>35934</v>
+        <v>36754</v>
       </c>
       <c r="B662">
-        <v>125</v>
+        <v>120.0625</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
-        <v>35933</v>
+        <v>36755</v>
       </c>
       <c r="B663">
-        <v>124.625</v>
+        <v>122.375</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
-        <v>35930</v>
+        <v>36756</v>
       </c>
       <c r="B664">
-        <v>124.9375</v>
+        <v>120.1875</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
-        <v>35929</v>
+        <v>36759</v>
       </c>
       <c r="B665">
-        <v>125.8125</v>
+        <v>121.4375</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
-        <v>35928</v>
+        <v>36760</v>
       </c>
       <c r="B666">
-        <v>121.875</v>
+        <v>121.3125</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
-        <v>35927</v>
+        <v>36761</v>
       </c>
       <c r="B667">
-        <v>119.625</v>
+        <v>123</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
-        <v>35926</v>
+        <v>36762</v>
       </c>
       <c r="B668">
-        <v>119.3125</v>
+        <v>124.8125</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
-        <v>35923</v>
+        <v>36763</v>
       </c>
       <c r="B669">
-        <v>120</v>
+        <v>129.125</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
-        <v>35922</v>
+        <v>36766</v>
       </c>
       <c r="B670">
-        <v>117.125</v>
+        <v>130.5625</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
-        <v>35921</v>
+        <v>36767</v>
       </c>
       <c r="B671">
-        <v>117.25</v>
+        <v>132.875</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
-        <v>35920</v>
+        <v>36768</v>
       </c>
       <c r="B672">
-        <v>117.8125</v>
+        <v>130.3125</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
-        <v>35919</v>
+        <v>36769</v>
       </c>
       <c r="B673">
-        <v>116.625</v>
+        <v>132</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
-        <v>35916</v>
+        <v>36770</v>
       </c>
       <c r="B674">
-        <v>116.875</v>
+        <v>133.625</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
-        <v>35915</v>
+        <v>36774</v>
       </c>
       <c r="B675">
-        <v>115.875</v>
+        <v>131.5625</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
-        <v>35914</v>
+        <v>36775</v>
       </c>
       <c r="B676">
-        <v>115.5625</v>
+        <v>131.4375</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
-        <v>35913</v>
+        <v>36776</v>
       </c>
       <c r="B677">
-        <v>115.6875</v>
+        <v>133.375</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
-        <v>35912</v>
+        <v>36777</v>
       </c>
       <c r="B678">
-        <v>115.3125</v>
+        <v>129.5</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
-        <v>35909</v>
+        <v>36780</v>
       </c>
       <c r="B679">
-        <v>117.375</v>
+        <v>124.75</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
-        <v>35908</v>
+        <v>36781</v>
       </c>
       <c r="B680">
-        <v>117.5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
-        <v>35907</v>
+        <v>36782</v>
       </c>
       <c r="B681">
-        <v>114.75</v>
+        <v>127.3125</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
-        <v>35906</v>
+        <v>36783</v>
       </c>
       <c r="B682">
-        <v>118</v>
+        <v>126.875</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
-        <v>35905</v>
+        <v>36784</v>
       </c>
       <c r="B683">
-        <v>111.1875</v>
+        <v>124.8125</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
-        <v>35902</v>
+        <v>36787</v>
       </c>
       <c r="B684">
-        <v>107.75</v>
+        <v>123.25</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
-        <v>35901</v>
+        <v>36788</v>
       </c>
       <c r="B685">
-        <v>107.8125</v>
+        <v>125.125</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
-        <v>35900</v>
+        <v>36789</v>
       </c>
       <c r="B686">
-        <v>109.75</v>
+        <v>124.375</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
-        <v>35899</v>
+        <v>36790</v>
       </c>
       <c r="B687">
-        <v>106.25</v>
+        <v>126.0625</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
-        <v>35898</v>
+        <v>36791</v>
       </c>
       <c r="B688">
-        <v>104.1875</v>
+        <v>124</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
-        <v>35894</v>
+        <v>36794</v>
       </c>
       <c r="B689">
-        <v>106.375</v>
+        <v>121.6875</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
-        <v>35893</v>
+        <v>36795</v>
       </c>
       <c r="B690">
-        <v>104.5</v>
+        <v>119.3125</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
-        <v>35892</v>
+        <v>36796</v>
       </c>
       <c r="B691">
-        <v>104.6875</v>
+        <v>118</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
-        <v>35891</v>
+        <v>36797</v>
       </c>
       <c r="B692">
-        <v>106</v>
+        <v>117.9375</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
-        <v>35888</v>
+        <v>36798</v>
       </c>
       <c r="B693">
-        <v>104.6875</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
-        <v>35887</v>
+        <v>36801</v>
       </c>
       <c r="B694">
-        <v>105.8125</v>
+        <v>117.8125</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
-        <v>35886</v>
+        <v>36802</v>
       </c>
       <c r="B695">
-        <v>104.4375</v>
+        <v>110.5625</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
-        <v>35885</v>
+        <v>36803</v>
       </c>
       <c r="B696">
-        <v>103.875</v>
+        <v>114.375</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
-        <v>35884</v>
+        <v>36804</v>
       </c>
       <c r="B697">
-        <v>103.25</v>
+        <v>113.1875</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
-        <v>35881</v>
+        <v>36805</v>
       </c>
       <c r="B698">
-        <v>104.375</v>
+        <v>116</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
-        <v>35880</v>
+        <v>36808</v>
       </c>
       <c r="B699">
-        <v>105.0625</v>
+        <v>117.9375</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
-        <v>35879</v>
+        <v>36809</v>
       </c>
       <c r="B700">
-        <v>106</v>
+        <v>114.875</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
-        <v>35878</v>
+        <v>36810</v>
       </c>
       <c r="B701">
-        <v>103.5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
-        <v>35877</v>
+        <v>36811</v>
       </c>
       <c r="B702">
-        <v>101.375</v>
+        <v>103.125</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
-        <v>35874</v>
+        <v>36812</v>
       </c>
       <c r="B703">
-        <v>102.0625</v>
+        <v>109.0625</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
-        <v>35873</v>
+        <v>36815</v>
       </c>
       <c r="B704">
-        <v>102.875</v>
+        <v>111.125</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
-        <v>35872</v>
+        <v>36816</v>
       </c>
       <c r="B705">
-        <v>101.5625</v>
+        <v>113</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
-        <v>35871</v>
+        <v>36817</v>
       </c>
       <c r="B706">
-        <v>100.875</v>
+        <v>95.4375</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
-        <v>35870</v>
+        <v>36818</v>
       </c>
       <c r="B707">
-        <v>101.25</v>
+        <v>96.4375</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
-        <v>35867</v>
+        <v>36819</v>
       </c>
       <c r="B708">
-        <v>99.625</v>
+        <v>94.75</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
-        <v>35866</v>
+        <v>36822</v>
       </c>
       <c r="B709">
-        <v>100.25</v>
+        <v>92.875</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
-        <v>35865</v>
+        <v>36823</v>
       </c>
       <c r="B710">
-        <v>99.125</v>
+        <v>91.4375</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
-        <v>35864</v>
+        <v>36824</v>
       </c>
       <c r="B711">
-        <v>97.5</v>
+        <v>87.5625</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
-        <v>35863</v>
+        <v>36825</v>
       </c>
       <c r="B712">
-        <v>96.125</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
-        <v>35860</v>
+        <v>36826</v>
       </c>
       <c r="B713">
-        <v>98.125</v>
+        <v>93.6875</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
-        <v>35859</v>
+        <v>36829</v>
       </c>
       <c r="B714">
-        <v>98.9375</v>
+        <v>93.3125</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
-        <v>35858</v>
+        <v>36830</v>
       </c>
       <c r="B715">
-        <v>99</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
-        <v>35857</v>
+        <v>36831</v>
       </c>
       <c r="B716">
-        <v>102.125</v>
+        <v>98.5625</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
-        <v>35856</v>
+        <v>36832</v>
       </c>
       <c r="B717">
         <v>101.9375</v>
@@ -6148,319 +6144,319 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
-        <v>35853</v>
+        <v>36833</v>
       </c>
       <c r="B718">
-        <v>104.4375</v>
+        <v>100.125</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
-        <v>35852</v>
+        <v>36836</v>
       </c>
       <c r="B719">
-        <v>105.5</v>
+        <v>100.3125</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
-        <v>35851</v>
+        <v>36837</v>
       </c>
       <c r="B720">
-        <v>105.25</v>
+        <v>102.3125</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
-        <v>35850</v>
+        <v>36838</v>
       </c>
       <c r="B721">
-        <v>102.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
-        <v>35849</v>
+        <v>36839</v>
       </c>
       <c r="B722">
-        <v>102.875</v>
+        <v>99.4375</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
-        <v>35846</v>
+        <v>36840</v>
       </c>
       <c r="B723">
-        <v>102.625</v>
+        <v>93</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
-        <v>35845</v>
+        <v>36843</v>
       </c>
       <c r="B724">
-        <v>102.75</v>
+        <v>97.4375</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
-        <v>35844</v>
+        <v>36844</v>
       </c>
       <c r="B725">
-        <v>102.75</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
-        <v>35843</v>
+        <v>36845</v>
       </c>
       <c r="B726">
-        <v>102</v>
+        <v>99.375</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
-        <v>35839</v>
+        <v>36846</v>
       </c>
       <c r="B727">
-        <v>102.375</v>
+        <v>98.25</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
-        <v>35838</v>
+        <v>36847</v>
       </c>
       <c r="B728">
-        <v>102.875</v>
+        <v>101.9375</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
-        <v>35837</v>
+        <v>36850</v>
       </c>
       <c r="B729">
-        <v>102.6875</v>
+        <v>103.25</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
-        <v>35836</v>
+        <v>36851</v>
       </c>
       <c r="B730">
-        <v>100.875</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
-        <v>35835</v>
+        <v>36852</v>
       </c>
       <c r="B731">
-        <v>98</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
-        <v>35832</v>
+        <v>36854</v>
       </c>
       <c r="B732">
-        <v>98</v>
+        <v>99.9375</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
-        <v>35831</v>
+        <v>36857</v>
       </c>
       <c r="B733">
-        <v>99.5625</v>
+        <v>98.4375</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
-        <v>35830</v>
+        <v>36858</v>
       </c>
       <c r="B734">
-        <v>98.3125</v>
+        <v>97.875</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
-        <v>35829</v>
+        <v>36859</v>
       </c>
       <c r="B735">
-        <v>99.375</v>
+        <v>99.8125</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
-        <v>35828</v>
+        <v>36860</v>
       </c>
       <c r="B736">
-        <v>100.5625</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
-        <v>35825</v>
+        <v>36861</v>
       </c>
       <c r="B737">
-        <v>98.75</v>
+        <v>95.625</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
-        <v>35824</v>
+        <v>36864</v>
       </c>
       <c r="B738">
-        <v>98.1875</v>
+        <v>98.375</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
-        <v>35823</v>
+        <v>36865</v>
       </c>
       <c r="B739">
-        <v>97</v>
+        <v>103.375</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
-        <v>35822</v>
+        <v>36866</v>
       </c>
       <c r="B740">
-        <v>96.5</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
-        <v>35821</v>
+        <v>36867</v>
       </c>
       <c r="B741">
-        <v>98.125</v>
+        <v>95.375</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
-        <v>35818</v>
+        <v>36868</v>
       </c>
       <c r="B742">
-        <v>99.1875</v>
+        <v>97</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
-        <v>35817</v>
+        <v>36871</v>
       </c>
       <c r="B743">
-        <v>99.375</v>
+        <v>95</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
-        <v>35816</v>
+        <v>36872</v>
       </c>
       <c r="B744">
-        <v>100.125</v>
+        <v>93.875</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
-        <v>35815</v>
+        <v>36873</v>
       </c>
       <c r="B745">
-        <v>108.375</v>
+        <v>91.25</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
-        <v>35811</v>
+        <v>36874</v>
       </c>
       <c r="B746">
-        <v>105</v>
+        <v>92.4375</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
-        <v>35810</v>
+        <v>36875</v>
       </c>
       <c r="B747">
-        <v>103.4375</v>
+        <v>87.8125</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
-        <v>35809</v>
+        <v>36878</v>
       </c>
       <c r="B748">
-        <v>102.625</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
-        <v>35808</v>
+        <v>36879</v>
       </c>
       <c r="B749">
-        <v>102.125</v>
+        <v>90.125</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
-        <v>35807</v>
+        <v>36880</v>
       </c>
       <c r="B750">
-        <v>100.125</v>
+        <v>86</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
-        <v>35804</v>
+        <v>36881</v>
       </c>
       <c r="B751">
-        <v>100.0625</v>
+        <v>81.5625</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
-        <v>35803</v>
+        <v>36882</v>
       </c>
       <c r="B752">
-        <v>104.1875</v>
+        <v>89</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
-        <v>35802</v>
+        <v>36886</v>
       </c>
       <c r="B753">
-        <v>104.25</v>
+        <v>84.8125</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
-        <v>35801</v>
+        <v>36887</v>
       </c>
       <c r="B754">
-        <v>105.25</v>
+        <v>84.6875</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
-        <v>35800</v>
+        <v>36888</v>
       </c>
       <c r="B755">
-        <v>106.4375</v>
+        <v>85.25</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
-        <v>35797</v>
+        <v>36889</v>
       </c>
       <c r="B756">
-        <v>105.625</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B756">
-    <sortCondition descending="1" ref="A1:A756"/>
+  <sortState ref="A1:B756">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
